--- a/Mifos Automation Excels/Client/Clientnavigation.xlsx
+++ b/Mifos Automation Excels/Client/Clientnavigation.xlsx
@@ -19,13 +19,13 @@
     <t>NavigateURL</t>
   </si>
   <si>
-    <t>/clients</t>
-  </si>
-  <si>
     <t>createclient</t>
   </si>
   <si>
     <t>createclick</t>
+  </si>
+  <si>
+    <t>clients</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -385,15 +385,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
